--- a/files/COVID_article/AppendixTab1.xlsx
+++ b/files/COVID_article/AppendixTab1.xlsx
@@ -387,17 +387,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DiffDE</t>
+          <t>AgeComp</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>AgeCompDE</t>
+          <t>RateComp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>RateCompDE</t>
+          <t>Diff</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -429,13 +429,13 @@
         <v>0.02203125</v>
       </c>
       <c r="E2">
+        <v>0.01821682919477461</v>
+      </c>
+      <c r="F2">
+        <v>0.006335126322959389</v>
+      </c>
+      <c r="G2">
         <v>0.024551955517734</v>
-      </c>
-      <c r="F2">
-        <v>0.01821682919477461</v>
-      </c>
-      <c r="G2">
-        <v>0.006335126322959389</v>
       </c>
       <c r="H2">
         <v>0.7419706011448458</v>
@@ -462,13 +462,13 @@
         <v>0.02290248925501433</v>
       </c>
       <c r="E3">
+        <v>0.01107705204659167</v>
+      </c>
+      <c r="F3">
+        <v>0.012603664216128</v>
+      </c>
+      <c r="G3">
         <v>0.02368071626271967</v>
-      </c>
-      <c r="F3">
-        <v>0.01107705204659167</v>
-      </c>
-      <c r="G3">
-        <v>0.012603664216128</v>
       </c>
       <c r="H3">
         <v>0.4677667653165613</v>
@@ -522,13 +522,13 @@
         <v>0.04973334332730966</v>
       </c>
       <c r="E5">
+        <v>0.007695162948774641</v>
+      </c>
+      <c r="F5">
+        <v>-0.0108453007583503</v>
+      </c>
+      <c r="G5">
         <v>-0.003150137809575661</v>
-      </c>
-      <c r="F5">
-        <v>0.007695162948774641</v>
-      </c>
-      <c r="G5">
-        <v>-0.0108453007583503</v>
       </c>
       <c r="H5">
         <v>0.4150469519172519</v>
@@ -555,13 +555,13 @@
         <v>0.08719684220304529</v>
       </c>
       <c r="E6">
+        <v>0.007823105228903213</v>
+      </c>
+      <c r="F6">
+        <v>-0.04843674191421452</v>
+      </c>
+      <c r="G6">
         <v>-0.04061363668531129</v>
-      </c>
-      <c r="F6">
-        <v>0.007823105228903213</v>
-      </c>
-      <c r="G6">
-        <v>-0.04843674191421452</v>
       </c>
       <c r="H6">
         <v>0.1390530836140072</v>
@@ -588,13 +588,13 @@
         <v>0.121913536873179</v>
       </c>
       <c r="E7">
+        <v>-0.05139373849430973</v>
+      </c>
+      <c r="F7">
+        <v>-0.02393659286113524</v>
+      </c>
+      <c r="G7">
         <v>-0.07533033135544497</v>
-      </c>
-      <c r="F7">
-        <v>-0.05139373849430973</v>
-      </c>
-      <c r="G7">
-        <v>-0.02393659286113524</v>
       </c>
       <c r="H7">
         <v>0.6822449545828917</v>
@@ -621,13 +621,13 @@
         <v>0.1403006799609074</v>
       </c>
       <c r="E8">
+        <v>-0.05882690109089572</v>
+      </c>
+      <c r="F8">
+        <v>-0.03489057335227774</v>
+      </c>
+      <c r="G8">
         <v>-0.09371747444317345</v>
-      </c>
-      <c r="F8">
-        <v>-0.05882690109089572</v>
-      </c>
-      <c r="G8">
-        <v>-0.03489057335227774</v>
       </c>
       <c r="H8">
         <v>0.6277047203887894</v>
